--- a/public/cargamasiva/estudiante/cargamasiva_estudiantes.xlsx
+++ b/public/cargamasiva/estudiante/cargamasiva_estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevins\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044FBC7F-3664-49C1-A1ED-26F7487EEE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03315AB1-6FB7-4053-9F75-8911AF9B988C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30900" yWindow="1650" windowWidth="16740" windowHeight="12495" xr2:uid="{3F18BE13-0E64-431A-BD60-87C94BF26D37}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="16780" windowHeight="10170" xr2:uid="{3F18BE13-0E64-431A-BD60-87C94BF26D37}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="78">
   <si>
     <t>cm</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -614,15 +623,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A698E-E6D4-40E5-A0A6-4A00DE73EA7D}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:C76"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,8 +650,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1111112</v>
       </c>
@@ -661,8 +673,11 @@
       <c r="F2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1111113</v>
       </c>
@@ -681,8 +696,11 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1111114</v>
       </c>
@@ -701,8 +719,11 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1111112</v>
       </c>
@@ -721,8 +742,11 @@
       <c r="F5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1111113</v>
       </c>
@@ -741,8 +765,11 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1111114</v>
       </c>
@@ -761,8 +788,11 @@
       <c r="F7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1111112</v>
       </c>
@@ -781,8 +811,11 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1111113</v>
       </c>
@@ -801,8 +834,11 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1111114</v>
       </c>
@@ -821,8 +857,11 @@
       <c r="F10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1111112</v>
       </c>
@@ -841,8 +880,11 @@
       <c r="F11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1111113</v>
       </c>
@@ -861,8 +903,11 @@
       <c r="F12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1111114</v>
       </c>
@@ -881,8 +926,11 @@
       <c r="F13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1111112</v>
       </c>
@@ -901,8 +949,11 @@
       <c r="F14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1111113</v>
       </c>
@@ -921,8 +972,11 @@
       <c r="F15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1111114</v>
       </c>
@@ -941,8 +995,11 @@
       <c r="F16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1111112</v>
       </c>
@@ -961,8 +1018,11 @@
       <c r="F17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1111113</v>
       </c>
@@ -981,8 +1041,11 @@
       <c r="F18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1111114</v>
       </c>
@@ -1001,8 +1064,11 @@
       <c r="F19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1111112</v>
       </c>
@@ -1021,8 +1087,11 @@
       <c r="F20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1111113</v>
       </c>
@@ -1041,8 +1110,11 @@
       <c r="F21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1111114</v>
       </c>
@@ -1061,8 +1133,11 @@
       <c r="F22" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1111112</v>
       </c>
@@ -1081,8 +1156,11 @@
       <c r="F23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1111113</v>
       </c>
@@ -1101,8 +1179,11 @@
       <c r="F24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1111112</v>
       </c>
@@ -1121,8 +1202,11 @@
       <c r="F25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1111113</v>
       </c>
@@ -1141,8 +1225,11 @@
       <c r="F26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1111114</v>
       </c>
@@ -1161,8 +1248,11 @@
       <c r="F27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1111112</v>
       </c>
@@ -1181,8 +1271,11 @@
       <c r="F28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1111113</v>
       </c>
@@ -1201,8 +1294,11 @@
       <c r="F29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1111114</v>
       </c>
@@ -1221,8 +1317,11 @@
       <c r="F30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1111112</v>
       </c>
@@ -1241,8 +1340,11 @@
       <c r="F31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1111113</v>
       </c>
@@ -1261,8 +1363,11 @@
       <c r="F32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1111114</v>
       </c>
@@ -1281,8 +1386,11 @@
       <c r="F33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1111112</v>
       </c>
@@ -1301,8 +1409,11 @@
       <c r="F34" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1111113</v>
       </c>
@@ -1321,8 +1432,11 @@
       <c r="F35" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1111114</v>
       </c>
@@ -1341,8 +1455,11 @@
       <c r="F36" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1111112</v>
       </c>
@@ -1361,8 +1478,11 @@
       <c r="F37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1111113</v>
       </c>
@@ -1381,8 +1501,11 @@
       <c r="F38" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1111114</v>
       </c>
@@ -1401,8 +1524,11 @@
       <c r="F39" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1111112</v>
       </c>
@@ -1421,8 +1547,11 @@
       <c r="F40" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1111113</v>
       </c>
@@ -1441,8 +1570,11 @@
       <c r="F41" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1111114</v>
       </c>
@@ -1461,8 +1593,11 @@
       <c r="F42" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1111112</v>
       </c>
@@ -1481,8 +1616,11 @@
       <c r="F43" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1111113</v>
       </c>
@@ -1501,8 +1639,11 @@
       <c r="F44" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1111114</v>
       </c>
@@ -1521,8 +1662,11 @@
       <c r="F45" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1111112</v>
       </c>
@@ -1541,8 +1685,11 @@
       <c r="F46" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1111113</v>
       </c>
@@ -1561,8 +1708,11 @@
       <c r="F47" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1111114</v>
       </c>
@@ -1581,8 +1731,11 @@
       <c r="F48" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1111113</v>
       </c>
@@ -1601,8 +1754,11 @@
       <c r="F49" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1111114</v>
       </c>
@@ -1621,60 +1777,63 @@
       <c r="F50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
